--- a/docs/vtec_salm.xlsx
+++ b/docs/vtec_salm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\GitHub\HSO\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A102AC-B976-43BD-AD81-5B84FAA294EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB4AD9D-0878-4618-BD14-0583ACEEEDA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34669" yWindow="-109" windowWidth="23040" windowHeight="13898" activeTab="2" xr2:uid="{2C0B8B27-201B-4AB2-9005-6DE2D49813B0}"/>
   </bookViews>
@@ -77519,7 +77519,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
